--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R2d5fa148b8fa4d7c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R78066c6b889546ef"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R78066c6b889546ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rfceb7ab6802145ce"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rfceb7ab6802145ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R5b79f38643c449d1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R5b79f38643c449d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R05f27491d6d04efc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R05f27491d6d04efc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R25c9dbacfd534ae6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R25c9dbacfd534ae6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rc44fdbdef654445c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rc44fdbdef654445c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rae5f95fb3c5640d7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rae5f95fb3c5640d7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Ra3c9e8ed964d4469"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Ra3c9e8ed964d4469"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rdb2c2b6dad9f4bdd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="Rdb2c2b6dad9f4bdd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R95b42871fd824077"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R95b42871fd824077"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R87dacdf6395345f2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R87dacdf6395345f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R57dd2bba61d84a5b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/032_FreezePanes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R57dd2bba61d84a5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FreezePanes" sheetId="1" r:id="R1af94853fe124dcd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
